--- a/data/wahrscheinlichkeit-infizierten-treffen.xlsx
+++ b/data/wahrscheinlichkeit-infizierten-treffen.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Faktor für Dunkelziffer</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschätzung der Gesamtzahl derzeit ansteckenden Personen in meiner Region pro 100000 Einwohner</t>
+    <t xml:space="preserve">Abschätzung der Gesamtzahl der derzeit ansteckenden Personen in meiner Region pro 100000 Einwohner</t>
   </si>
   <si>
     <t xml:space="preserve">Wahrscheinlichkeit dass eine beliebige Person in meiner Region infiziert und ansteckend ist</t>
@@ -357,14 +357,14 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -378,7 +378,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -427,990 +427,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle!$C$3:$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="ffc000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle!$B$5:$B$33;Tabelle!$C$36:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle!$C$5:$C$33;Tabelle!$D$36:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>9.99975000000042E-005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000149992500124929</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000199985000500003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000249975001249902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000299962502499862</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000349947504374781</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00039993000699956</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00044991001049921</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.000499887514998632</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00064980503574541</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000999525142469593</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.00149891300732863</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.00199805123442876</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.00249693994856104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.00299557927445371</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.00349396933677282</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.00399211026012214</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.00449000216904327</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00498764518801531</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.00647908214909565</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.00995041377150907</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0148884298261581</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0198018168087939</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0246906975604889</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0295551943096278</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0343954286749639</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0392115216686588</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0440035936993086</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0487717645749542</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle!$D$3:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle!$B$5:$B$33;Tabelle!$C$36:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle!$D$5:$D$33;Tabelle!$E$36:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.000199989999999928</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000299970001000016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000399940003999899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000499900009999443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000599850019998405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000699790034996428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.000799720055992936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.000899640083987352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.000999550119978876</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00129922028592833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.00199810113951548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.00299565405726054</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.00399220987086712</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.00498776957699065</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.00598233417129046</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.00697590464843068</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.00796848200208122</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.00896006722491893</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00995066130862809</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0129165066269671</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0198023069567772</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0295559222157489</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0392124825527439</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0487729537284192</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0582382918934744</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0676094436842775</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0768873463175386</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0860729276840416</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0951671064414438</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle!$E$3:$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle!$B$5:$B$33;Tabelle!$C$36:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle!$E$5:$E$33;Tabelle!$F$36:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.000999749999999855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00149925012499985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00199850049993733</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00249750124968728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00299625249906232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00349475437281277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00399300699562632</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00449101049212841</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00498876498688228</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00648053570535201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.00995264219767034</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0148917557916299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0198062293086257</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0246961856722111</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0295617471927023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0344030355702386</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0392201718978257</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0440132766643646</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0487824697576658</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.062947768922752</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.095185210159674</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.139324310281348</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.181310196086207</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.221247906686541</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.259237357127323</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.295373588350868</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.329747004967595</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.362443601427748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.393545177159905</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle!$F$3:$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle!$B$5:$B$33;Tabelle!$C$36:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle!$F$5:$F$33;Tabelle!$G$36:$G$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0.00199899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.002997001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00399400399899996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00499000999500099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005985019985006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00697903496502095</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00797205593005601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00896408387412595</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00995511979025176</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0129222852862853</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0198111351704653</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0295690327369142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0392297892641882</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0487943718029686</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0582637377768318</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0676388350780874</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0769206021626638</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.086109968144048</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0952078528862911</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.121961681504399</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.181351170521364</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.259292967843901</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.32981409399326</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.393621055138815</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.451353092514503</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.503588586568901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.550850851389925</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.593613377454796</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.632304575229036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Tabelle!$G$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1446,6 +462,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1454,102 +471,6 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle!$B$5:$B$33;Tabelle!$C$36:$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Tabelle!$G$5:$G$33</c:f>
@@ -1648,11 +569,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="30657042"/>
-        <c:axId val="51645443"/>
+        <c:axId val="37333163"/>
+        <c:axId val="66811205"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30657042"/>
+        <c:axId val="37333163"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1730,12 +651,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51645443"/>
+        <c:crossAx val="66811205"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51645443"/>
+        <c:axId val="66811205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -1812,7 +733,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30657042"/>
+        <c:crossAx val="37333163"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.01"/>
@@ -1876,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1887,7 +808,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9294120" cy="6057360"/>
+        <a:ext cx="9284760" cy="6057000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1908,12 +829,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.68"/>
   </cols>
   <sheetData>
@@ -1999,7 +920,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -2893,7 +1814,7 @@
       <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/wahrscheinlichkeit-infizierten-treffen.xlsx
+++ b/data/wahrscheinlichkeit-infizierten-treffen.xlsx
@@ -378,7 +378,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -569,11 +569,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="37333163"/>
-        <c:axId val="66811205"/>
+        <c:axId val="5357241"/>
+        <c:axId val="19529385"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37333163"/>
+        <c:axId val="5357241"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -651,12 +651,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66811205"/>
+        <c:crossAx val="19529385"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66811205"/>
+        <c:axId val="19529385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -733,7 +733,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37333163"/>
+        <c:crossAx val="5357241"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.01"/>
@@ -797,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -808,7 +808,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9284760" cy="6057000"/>
+        <a:ext cx="9275760" cy="6056640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -832,7 +832,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.68"/>
@@ -872,12 +872,12 @@
         <v>0.0008</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>25</v>
+      <c r="B5" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +886,7 @@
       </c>
       <c r="B6" s="4" t="n">
         <f aca="false">(1-$B$4)^$B$5</f>
-        <v>0.980190827564076</v>
+        <v>0.923086791372707</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +895,7 @@
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">1-((1-$B$4)^$B$5)</f>
-        <v>0.0198091724359238</v>
+        <v>0.0769132086272933</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +920,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -1814,7 +1814,7 @@
       <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/wahrscheinlichkeit-infizierten-treffen.xlsx
+++ b/data/wahrscheinlichkeit-infizierten-treffen.xlsx
@@ -57,25 +57,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">In der letzten Woche als infiziert gemeldete Personen in meiner Region pro 100000 Einwohner</t>
+    <t xml:space="preserve">In der letzten Woche als infiziert gemeldete Personen in meiner Region pro 100.000 Einwohner</t>
   </si>
   <si>
     <t xml:space="preserve">Faktor für Dunkelziffer</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschätzung der Gesamtzahl der derzeit ansteckenden Personen in meiner Region pro 100000 Einwohner</t>
+    <t xml:space="preserve">Abschätzung der Gesamtzahl der derzeit infektiösen Personen in meiner Region pro 100.000 Einwohner</t>
   </si>
   <si>
     <t xml:space="preserve">Wahrscheinlichkeit dass eine beliebige Person in meiner Region infiziert und ansteckend ist</t>
   </si>
   <si>
-    <t xml:space="preserve">Anzahl Personen X mit denen ich Kontakt habe</t>
+    <t xml:space="preserve">Anzahl Personen X in Veranstaltung</t>
   </si>
   <si>
-    <t xml:space="preserve">Wahrscheinlichkeit dass von X Personen niemand ansteckend ist</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wahrscheinlichkeit von X Personen ist niemand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">infektiös</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Wahrscheinlichkeit, dass von X Personen min 1 ansteckend ist</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wahrscheinlichkeit von X Personen ist jemand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">infektiös</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Wie hoch ist die Wahrscheinlichkeit dass beim Treffen mit Personen ein Infizierter dabei ist?</t>
@@ -101,7 +137,7 @@
     <numFmt numFmtId="170" formatCode="0%"/>
     <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -123,6 +159,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -258,11 +300,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +312,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,15 +324,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,7 +420,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -569,11 +611,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="5357241"/>
-        <c:axId val="19529385"/>
+        <c:axId val="48379436"/>
+        <c:axId val="2928985"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5357241"/>
+        <c:axId val="48379436"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -651,12 +693,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19529385"/>
+        <c:crossAx val="2928985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19529385"/>
+        <c:axId val="2928985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -733,7 +775,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5357241"/>
+        <c:crossAx val="48379436"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.01"/>
@@ -797,9 +839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -808,7 +850,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9275760" cy="6056640"/>
+        <a:ext cx="9266400" cy="6056280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -829,10 +871,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.68"/>
@@ -880,7 +922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
@@ -889,7 +931,7 @@
         <v>0.923086791372707</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
@@ -920,7 +962,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -1814,7 +1856,7 @@
       <selection pane="topLeft" activeCell="K45" activeCellId="0" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
